--- a/Data.xlsx
+++ b/Data.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
-    <sheet name="Đăng kí" sheetId="2" r:id="rId2"/>
+    <sheet name="Giỏ hàng" sheetId="4" r:id="rId2"/>
+    <sheet name="Tìm kiếm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>0348340873</t>
   </si>
@@ -33,15 +34,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Username(Email hoặc Sđt)</t>
-  </si>
-  <si>
     <t>thanhlevt7@gmail.com</t>
   </si>
   <si>
-    <t>thanhlevt7</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -52,13 +47,31 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>rau</t>
+  </si>
+  <si>
+    <t>@@@</t>
+  </si>
+  <si>
+    <t>Từ khóa tìm kiếm</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>!@#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +82,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -98,10 +119,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -383,41 +406,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>123456789</v>
       </c>
@@ -425,76 +448,39 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
         <v>123</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>123</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="thanhlevt7@gmail.com"/>
-    <hyperlink ref="A7" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3" display="thanhlevt7@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -502,25 +488,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84348\OneDrive\Desktop\data_ktpm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84348\OneDrive\Desktop\tannghia\kiemthuphanmem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
-    <sheet name="Giỏ hàng" sheetId="4" r:id="rId2"/>
-    <sheet name="Tìm kiếm" sheetId="3" r:id="rId3"/>
+    <sheet name="Đăng ký" sheetId="6" r:id="rId2"/>
+    <sheet name="Thanh toán" sheetId="5" r:id="rId3"/>
+    <sheet name="Giỏ hàng" sheetId="4" r:id="rId4"/>
+    <sheet name="Tìm kiếm" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="30">
   <si>
     <t>0348340873</t>
   </si>
@@ -65,6 +67,57 @@
   </si>
   <si>
     <t>!@#</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>sdt</t>
+  </si>
+  <si>
+    <t>0906656658</t>
+  </si>
+  <si>
+    <t>#$%^&amp;*</t>
+  </si>
+  <si>
+    <t>tannghia</t>
+  </si>
+  <si>
+    <t>tannghia@gmail.com</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>nsinh</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>0906658965</t>
+  </si>
+  <si>
+    <t>#$%^&amp;</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>nghia</t>
+  </si>
+  <si>
+    <t>01/01/2001</t>
+  </si>
+  <si>
+    <t>trandan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -119,12 +172,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -408,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -488,6 +551,508 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23456</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>234567</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2345678</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8">
+        <v>23456789</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3">
+        <v>23456789</v>
+      </c>
+      <c r="F12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5" display="trandan@gmail.com"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10" display="trandan@gmail.com"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15"/>
+    <hyperlink ref="D18" r:id="rId16"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>34567</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6">
+        <v>234567</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" display="trandan@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="trandan@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="#$%@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="trandan@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="#$%@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId7" display="trandan@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -550,7 +1115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
